--- a/src/main/resources/data/data.xlsx
+++ b/src/main/resources/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.workspace\07.util\authserver\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C6508-5FF1-48B2-8BBB-90A67FB3EE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C931E-91A8-42AB-8880-CAC895D5DDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22046" yWindow="-2674" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-2674" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="초기설정" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="206">
   <si>
     <t>DB 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,8 +833,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>100410</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="잉크 6">
@@ -853,7 +853,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="잉크 6">
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC42E10-9590-46E7-B3AF-6EE8F3D5404E}">
   <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA143" sqref="AA3:AA143"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2727,7 +2727,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2735,8 +2735,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>140</v>
       </c>
       <c r="J9" t="s">
         <v>126</v>
@@ -2932,7 +2932,7 @@
     ),
     IF($Z$2="", "", ", "&amp;"null")
 )&amp;$AB$1</f>
-        <v>INSERT INTO PGI_DDL(PROJECT_CODE, TABLE_NAME, TABLE_COL, COL_TYPE, COL_TYPE_LMT, NULLABLE, COL_PK, DEFAULT_VALUE, COMMENT, SORT_SEQ, INS_ID, INS_DT, UPD_ID, UPD_DT) VALUES('P01', 'PGI_USERS', 'EMAIL_VERIFIED_YN', 'INT', null, '0', '0', '1', '메일 인증여부', '7', 'SYSTEM', now(), 'SYSTEM', now());</v>
+        <v>INSERT INTO PGI_DDL(PROJECT_CODE, TABLE_NAME, TABLE_COL, COL_TYPE, COL_TYPE_LMT, NULLABLE, COL_PK, DEFAULT_VALUE, COMMENT, SORT_SEQ, INS_ID, INS_DT, UPD_ID, UPD_DT) VALUES('P01', 'PGI_USERS', 'EMAIL_VERIFIED_YN', 'STRING', null, '0', '0', 'Y', '메일 인증여부', '7', 'SYSTEM', now(), 'SYSTEM', now());</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -32150,7 +32150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1EC9A2-F682-4B5D-AAD0-1B1D498D4F68}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
